--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H2">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I2">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J2">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.251791</v>
       </c>
       <c r="O2">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P2">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q2">
-        <v>0.5016885876335555</v>
+        <v>0.4163399715507778</v>
       </c>
       <c r="R2">
-        <v>4.515197288702</v>
+        <v>3.747059743957</v>
       </c>
       <c r="S2">
-        <v>0.0009083795541646132</v>
+        <v>0.001878287695438263</v>
       </c>
       <c r="T2">
-        <v>0.000908379554164613</v>
+        <v>0.001878287695438263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H3">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I3">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J3">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N3">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O3">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P3">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q3">
-        <v>46.68717092832134</v>
+        <v>14.42946199171789</v>
       </c>
       <c r="R3">
-        <v>420.184538354892</v>
+        <v>129.865157925461</v>
       </c>
       <c r="S3">
-        <v>0.08453385737379497</v>
+        <v>0.06509747505118493</v>
       </c>
       <c r="T3">
-        <v>0.08453385737379497</v>
+        <v>0.06509747505118492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H4">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I4">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J4">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N4">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O4">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P4">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q4">
-        <v>3.023321744872444</v>
+        <v>3.021231536229555</v>
       </c>
       <c r="R4">
-        <v>27.209895703852</v>
+        <v>27.191083826066</v>
       </c>
       <c r="S4">
-        <v>0.005474160119243907</v>
+        <v>0.01363006775072018</v>
       </c>
       <c r="T4">
-        <v>0.005474160119243906</v>
+        <v>0.01363006775072018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H5">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I5">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J5">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N5">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O5">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P5">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q5">
-        <v>37.20234142423401</v>
+        <v>13.96062129362522</v>
       </c>
       <c r="R5">
-        <v>334.821072818106</v>
+        <v>125.645591642627</v>
       </c>
       <c r="S5">
-        <v>0.06736020541393933</v>
+        <v>0.06298233412184291</v>
       </c>
       <c r="T5">
-        <v>0.06736020541393933</v>
+        <v>0.06298233412184291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>14.438005</v>
       </c>
       <c r="I6">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J6">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.251791</v>
       </c>
       <c r="O6">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P6">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q6">
         <v>0.4039288574394445</v>
@@ -824,10 +824,10 @@
         <v>3.635359716955</v>
       </c>
       <c r="S6">
-        <v>0.0007313714612600899</v>
+        <v>0.001822295850996408</v>
       </c>
       <c r="T6">
-        <v>0.0007313714612600898</v>
+        <v>0.001822295850996407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.438005</v>
       </c>
       <c r="I7">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J7">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N7">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O7">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P7">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q7">
-        <v>37.58964440293668</v>
+        <v>13.99931905185722</v>
       </c>
       <c r="R7">
-        <v>338.3067996264301</v>
+        <v>125.993871466715</v>
       </c>
       <c r="S7">
-        <v>0.06806147332354053</v>
+        <v>0.06315691626166839</v>
       </c>
       <c r="T7">
-        <v>0.06806147332354053</v>
+        <v>0.06315691626166836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>14.438005</v>
       </c>
       <c r="I8">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J8">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N8">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O8">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P8">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q8">
-        <v>2.434193099425556</v>
+        <v>2.931168482198889</v>
       </c>
       <c r="R8">
-        <v>21.90773789483</v>
+        <v>26.38051633979</v>
       </c>
       <c r="S8">
-        <v>0.004407457727585091</v>
+        <v>0.01322375479073872</v>
       </c>
       <c r="T8">
-        <v>0.00440745772758509</v>
+        <v>0.01322375479073872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.438005</v>
       </c>
       <c r="I9">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J9">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N9">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O9">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P9">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q9">
-        <v>29.95304185898501</v>
+        <v>13.54445451700056</v>
       </c>
       <c r="R9">
-        <v>269.5773767308651</v>
+        <v>121.900090653005</v>
       </c>
       <c r="S9">
-        <v>0.05423430287318527</v>
+        <v>0.06110482778279813</v>
       </c>
       <c r="T9">
-        <v>0.05423430287318526</v>
+        <v>0.06110482778279811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H10">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I10">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J10">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.251791</v>
       </c>
       <c r="O10">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P10">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q10">
-        <v>1.452613333223333</v>
+        <v>0.9889077816378887</v>
       </c>
       <c r="R10">
-        <v>13.07351999901</v>
+        <v>8.900170034740999</v>
       </c>
       <c r="S10">
-        <v>0.002630165972543099</v>
+        <v>0.004461385994851698</v>
       </c>
       <c r="T10">
-        <v>0.002630165972543098</v>
+        <v>0.004461385994851699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H11">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I11">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J11">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N11">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O11">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P11">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q11">
-        <v>135.18028644194</v>
+        <v>34.27345012132144</v>
       </c>
       <c r="R11">
-        <v>1216.62257797746</v>
+        <v>308.461051091893</v>
       </c>
       <c r="S11">
-        <v>0.2447634077330584</v>
+        <v>0.1546221935004473</v>
       </c>
       <c r="T11">
-        <v>0.2447634077330584</v>
+        <v>0.1546221935004473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H12">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I12">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J12">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N12">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O12">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P12">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q12">
-        <v>8.753871595806666</v>
+        <v>7.176153097139776</v>
       </c>
       <c r="R12">
-        <v>78.78484436225999</v>
+        <v>64.585377874258</v>
       </c>
       <c r="S12">
-        <v>0.01585014722962231</v>
+        <v>0.03237469612329766</v>
       </c>
       <c r="T12">
-        <v>0.01585014722962231</v>
+        <v>0.03237469612329766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H13">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I13">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J13">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N13">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O13">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P13">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q13">
-        <v>107.71745363967</v>
+        <v>33.15984046005011</v>
       </c>
       <c r="R13">
-        <v>969.4570827570301</v>
+        <v>298.438564140451</v>
       </c>
       <c r="S13">
-        <v>0.1950379875581731</v>
+        <v>0.1495982239870325</v>
       </c>
       <c r="T13">
-        <v>0.1950379875581731</v>
+        <v>0.1495982239870325</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H14">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I14">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J14">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.251791</v>
       </c>
       <c r="O14">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P14">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q14">
-        <v>0.07910349986333333</v>
+        <v>0.07670658942722221</v>
       </c>
       <c r="R14">
-        <v>0.7119314987699999</v>
+        <v>0.6903593048449999</v>
       </c>
       <c r="S14">
-        <v>0.0001432282968158735</v>
+        <v>0.000346056235108846</v>
       </c>
       <c r="T14">
-        <v>0.0001432282968158735</v>
+        <v>0.000346056235108846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H15">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I15">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J15">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N15">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O15">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P15">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q15">
-        <v>7.361376579380001</v>
+        <v>2.658487996076111</v>
       </c>
       <c r="R15">
-        <v>66.25238921442001</v>
+        <v>23.926391964685</v>
       </c>
       <c r="S15">
-        <v>0.0133288341414282</v>
+        <v>0.01199357648246146</v>
       </c>
       <c r="T15">
-        <v>0.0133288341414282</v>
+        <v>0.01199357648246146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H16">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I16">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J16">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N16">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O16">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P16">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q16">
-        <v>0.4767007604466666</v>
+        <v>0.5566325187344443</v>
       </c>
       <c r="R16">
-        <v>4.29030684402</v>
+        <v>5.009692668609999</v>
       </c>
       <c r="S16">
-        <v>0.000863135488664467</v>
+        <v>0.002511207384016938</v>
       </c>
       <c r="T16">
-        <v>0.0008631354886644666</v>
+        <v>0.002511207384016938</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H17">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I17">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J17">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N17">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O17">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P17">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q17">
-        <v>5.865860779590001</v>
+        <v>2.572108658532778</v>
       </c>
       <c r="R17">
-        <v>52.79274701631001</v>
+        <v>23.148977926795</v>
       </c>
       <c r="S17">
-        <v>0.01062098706468415</v>
+        <v>0.0116038823432141</v>
       </c>
       <c r="T17">
-        <v>0.01062098706468415</v>
+        <v>0.0116038823432141</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H18">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I18">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J18">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.251791</v>
       </c>
       <c r="O18">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P18">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q18">
-        <v>0.7323609252531111</v>
+        <v>1.013659200636</v>
       </c>
       <c r="R18">
-        <v>6.591248327278</v>
+        <v>9.122932805723998</v>
       </c>
       <c r="S18">
-        <v>0.00132604509484064</v>
+        <v>0.004573050233035755</v>
       </c>
       <c r="T18">
-        <v>0.001326045094840639</v>
+        <v>0.004573050233035754</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H19">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I19">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J19">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N19">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O19">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P19">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q19">
-        <v>68.15355290379868</v>
+        <v>35.13128190322799</v>
       </c>
       <c r="R19">
-        <v>613.3819761341881</v>
+        <v>316.1815371290519</v>
       </c>
       <c r="S19">
-        <v>0.1234018383665266</v>
+        <v>0.1584922395945309</v>
       </c>
       <c r="T19">
-        <v>0.1234018383665265</v>
+        <v>0.1584922395945309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H20">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I20">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J20">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N20">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O20">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P20">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q20">
-        <v>4.413420526180889</v>
+        <v>7.355765367767998</v>
       </c>
       <c r="R20">
-        <v>39.720784735628</v>
+        <v>66.20188830991199</v>
       </c>
       <c r="S20">
-        <v>0.007991134478110664</v>
+        <v>0.03318500390281282</v>
       </c>
       <c r="T20">
-        <v>0.007991134478110661</v>
+        <v>0.03318500390281282</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H21">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I21">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J21">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N21">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O21">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P21">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q21">
-        <v>54.30767583442601</v>
+        <v>33.989799653796</v>
       </c>
       <c r="R21">
-        <v>488.7690825098341</v>
+        <v>305.908196884164</v>
       </c>
       <c r="S21">
-        <v>0.09833188072881861</v>
+        <v>0.153342524913802</v>
       </c>
       <c r="T21">
-        <v>0.09833188072881859</v>
+        <v>0.153342524913802</v>
       </c>
     </row>
   </sheetData>
